--- a/Usuarios.xlsx
+++ b/Usuarios.xlsx
@@ -19,7 +19,7 @@
     <t xml:space="preserve"> Buenos días </t>
   </si>
   <si>
-    <t xml:space="preserve"> Anexo formulario ingreso poliza exequias del mes de Agosto2021 </t>
+    <t xml:space="preserve"> Anexo formulario ingreso poliza exequias del mes de Agosto2022</t>
   </si>
   <si>
     <t>Id</t>
@@ -484,7 +484,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="2">
-        <v>44574.09762678241</v>
+        <v>44574.60294081019</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/Usuarios.xlsx
+++ b/Usuarios.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"> Fecha envío </t>
   </si>
@@ -22,19 +22,13 @@
     <t xml:space="preserve"> Anexo formulario ingreso poliza exequias del mes de Agosto2022</t>
   </si>
   <si>
-    <t>Id</t>
+    <t>Item</t>
   </si>
   <si>
     <t>codigos</t>
   </si>
   <si>
-    <t>Nombres</t>
-  </si>
-  <si>
-    <t>Primer apellido</t>
-  </si>
-  <si>
-    <t>Segundo Apellido</t>
+    <t>Nombres y Apellidos</t>
   </si>
   <si>
     <t>Numeros de identificación</t>
@@ -49,13 +43,13 @@
     <t>edad</t>
   </si>
   <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
+    <t>000691661</t>
+  </si>
+  <si>
+    <t>GARCIA CASTRO ANDRES</t>
+  </si>
+  <si>
+    <t>1.066.651.341</t>
   </si>
   <si>
     <t>Soltero</t>
@@ -64,13 +58,13 @@
     <t>1995-02-23T05:00:00.000Z</t>
   </si>
   <si>
-    <t>ESTUPINAN</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>SILVIO</t>
+    <t>001608661</t>
+  </si>
+  <si>
+    <t>ESTUPINAN MARTINEZ SILVIO</t>
+  </si>
+  <si>
+    <t>1.000.178.566</t>
   </si>
   <si>
     <t>Casado</t>
@@ -475,7 +469,7 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
-    <col min="3" max="9" width="30" customWidth="1"/>
+    <col min="3" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:6" x14ac:dyDescent="0.25">
@@ -484,7 +478,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="2">
-        <v>44574.60294081019</v>
+        <v>44574.646144375</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -539,63 +533,53 @@
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8">
-        <v>691661</v>
+      <c r="B8" t="s">
+        <v>10</v>
       </c>
       <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="F8">
-        <v>1066651341</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9">
-        <v>1608661</v>
+      <c r="B9" t="s">
+        <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="F9">
-        <v>1000178566</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="G9">
         <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
